--- a/lingvo2/data/family/family.xlsx
+++ b/lingvo2/data/family/family.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_SYNS_ORIGINAL\0SYNC\python_projects\sling\lingvo2\data\family\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46A6AC34-9CB6-4F80-9D79-9BB89867851D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{683C6DB9-03A2-4402-BD21-451F03528B08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,36 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>family</t>
   </si>
   <si>
     <t>parents</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>sister</t>
-  </si>
-  <si>
-    <t>brother</t>
-  </si>
-  <si>
-    <t>grandmother</t>
-  </si>
-  <si>
-    <t>grandfather</t>
   </si>
   <si>
     <t>семья</t>
@@ -63,65 +33,17 @@
     <t>родители</t>
   </si>
   <si>
-    <t>отец</t>
-  </si>
-  <si>
-    <t>дочь</t>
-  </si>
-  <si>
-    <t>мать</t>
-  </si>
-  <si>
-    <t>сын</t>
-  </si>
-  <si>
-    <t>сестра</t>
-  </si>
-  <si>
-    <t>брат</t>
-  </si>
-  <si>
-    <t>бабушка</t>
-  </si>
-  <si>
-    <t>дедушка</t>
-  </si>
-  <si>
     <t>фэмили</t>
   </si>
   <si>
     <t>парентс</t>
   </si>
-  <si>
-    <t>мазе</t>
-  </si>
-  <si>
-    <t>фазе</t>
-  </si>
-  <si>
-    <t>доте</t>
-  </si>
-  <si>
-    <t>сон</t>
-  </si>
-  <si>
-    <t>систе</t>
-  </si>
-  <si>
-    <t>бразе</t>
-  </si>
-  <si>
-    <t>грендмазе</t>
-  </si>
-  <si>
-    <t>грендфазе</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -283,7 +205,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -477,345 +399,273 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F159261-DA25-453C-970D-836CA7D88F1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="21">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="21">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="21">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="21">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="21">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="21">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="21">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="21">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="21">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="21">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="21">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="21">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="21">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="21">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="21">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="21">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="21">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="21">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="21">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="21">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="21">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="21">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="21">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="21">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="21">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="21">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="21">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
